--- a/PC mamadisima!.xlsx
+++ b/PC mamadisima!.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>PIEZAS OFICIALES DE LA MAMADISIMA</t>
   </si>
@@ -81,13 +81,19 @@
   </si>
   <si>
     <t>SO</t>
+  </si>
+  <si>
+    <t>Mobiliario</t>
+  </si>
+  <si>
+    <t>Asus Prime X470-Pro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +112,13 @@
     <font>
       <b/>
       <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -132,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -141,11 +154,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -430,325 +450,344 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:K56"/>
+  <dimension ref="B2:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.7109375" customWidth="1"/>
+    <col min="11" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:12" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="4" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="4" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="3"/>
+    <row r="5" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="D9" s="7"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="D10" s="7"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="D11" s="7"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="D12" s="7"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="D13" s="7"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="D14" s="7"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="D15" s="7"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="D16" s="7"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="1"/>
+      <c r="D17" s="7"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F20" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F21" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F22" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F23" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F24" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F25" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F26" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F27" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F28" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F29" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F30" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F31" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F32" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F34" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F35" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F36" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F37" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F38" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F39" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F40" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F41" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F42" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F43" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F44" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F45" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F46" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F47" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F48" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F49" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F50" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F51" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F52" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F53" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F54" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F55" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F56" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
